--- a/public/record/ToCustomer_Form.xlsx
+++ b/public/record/ToCustomer_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\Desktop\Daily Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\exbon-daily-report\public\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518C78C6-CD1B-4DD2-9563-84CA3B3C4623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF869-CEC2-4939-B4D0-01F4142503D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="To Customer" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -95,15 +95,6 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>Subcontractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade </t>
-  </si>
-  <si>
-    <t>General Description</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -122,22 +113,13 @@
     <t>Task</t>
   </si>
   <si>
-    <t>John Kim</t>
-  </si>
-  <si>
-    <t>LA Publicworks</t>
-  </si>
-  <si>
-    <t>Electrical Room 100</t>
-  </si>
-  <si>
-    <t>Electrical Rough-in</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>Note</t>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>sdfsdfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -205,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -624,7 +606,95 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -636,7 +706,33 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -644,159 +740,7 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -804,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -816,202 +760,177 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,38 +939,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1533,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2C8E9D-6D28-4000-825A-0B3735755BD4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1547,317 +1460,302 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="63" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="78">
+      <c r="E2" s="73"/>
+      <c r="F2" s="74">
         <v>44781</v>
       </c>
-      <c r="G2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="80" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="1:11" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="G3" s="77"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="82" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="83"/>
-    </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:11" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="54" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
-      <c r="K6" s="68"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="10">
+        <f>SUM(C7:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(D7:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="49">
-        <v>1</v>
-      </c>
-      <c r="D7" s="48">
-        <v>2</v>
-      </c>
-      <c r="E7" s="44" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41">
-        <f>SUM(C7:C14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="41">
-        <f>SUM(D7:D14)</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="C17" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1878,46 +1776,41 @@
       <c r="A31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+  <mergeCells count="34">
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:G25"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.57999999999999996" bottom="0.45" header="0.56999999999999995" footer="0.3"/>

--- a/public/record/ToCustomer_Form.xlsx
+++ b/public/record/ToCustomer_Form.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\exbon-daily-report\public\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF869-CEC2-4939-B4D0-01F4142503D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9B179-CA38-4961-AF3F-6B9984078DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="To Customer" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'To Customer'!$A$1:$G$25</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -117,9 +116,6 @@
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>sdfsdfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -187,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -607,7 +603,61 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -615,14 +665,12 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -630,9 +678,7 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -643,97 +689,11 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -748,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -817,154 +777,151 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2C8E9D-6D28-4000-825A-0B3735755BD4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1461,97 +1418,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74">
+      <c r="E2" s="39"/>
+      <c r="F2" s="40">
         <v>44781</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="43"/>
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1559,78 +1516,78 @@
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="10">
         <f>SUM(C7:C14)</f>
         <v>0</v>
@@ -1639,20 +1596,20 @@
         <f>SUM(D7:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1662,100 +1619,98 @@
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="25"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1777,19 +1732,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A21:G21"/>
@@ -1806,11 +1753,19 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:G25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.57999999999999996" bottom="0.45" header="0.56999999999999995" footer="0.3"/>
@@ -1818,18 +1773,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C16ED8A-5EB2-44BB-B2E7-634A80AE3CE6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/record/ToCustomer_Form.xlsx
+++ b/public/record/ToCustomer_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\exbon-daily-report\public\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9B179-CA38-4961-AF3F-6B9984078DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F55B27-7651-47F0-9BD3-675EB13D1B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{C9C19B44-21EA-43CB-9FAE-260580B4FC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="To Customer" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -700,6 +700,24 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -708,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -720,9 +738,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,9 +753,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -748,12 +760,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,12 +780,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -787,7 +787,151 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,92 +979,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1417,300 +1475,294 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40">
+      <c r="E2" s="77"/>
+      <c r="F2" s="78">
         <v>44781</v>
       </c>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="G2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="G3" s="81"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="17" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="K6" s="19"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="68"/>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="10">
-        <f>SUM(C7:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <f>SUM(D7:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1732,11 +1784,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A22:G25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A21:G21"/>
@@ -1753,19 +1813,11 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.57999999999999996" bottom="0.45" header="0.56999999999999995" footer="0.3"/>
